--- a/medicine/Pharmacie/Johann_Zwelfer/Johann_Zwelfer.xlsx
+++ b/medicine/Pharmacie/Johann_Zwelfer/Johann_Zwelfer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Zwelfer ou Zwellfer ou Swölfer est un médecin et chimiste, né en 1618 dans le Palatinat et mort en 1668.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir travaillé pendant plusieurs années chez un apothicaire, il étudia la médecine et se fit recevoir docteur à la faculté de Padoue. Il s'établit ensuite à Vienne, où il pratiqua l'art de guérir avec assez de succès pour mériter la confiance de la famille impériale. Quelques auteurs lui donnent le titre de médecin de l'Empereur ; mais il ne le prend pas lui-même à la tète de ses ouvrages, et l'on peut en conclure qu'il n'en avait point été honoré. Ses connaissances dans la préparation des remèdes le mirent à même de signaler les erreurs répandues dans le Code pharmaceutique d'Augsbourg (Pharmacopœia augustana), dont la plupart des médecins allemands adoptaient aveuglément les formules. Mais il eut le tort de chercher à étendre sa réputation aux dépens de ses confrères, et de semer les traits du ridicule, indistinctement, 
 sur tous les membres du collège d'Augsbourg. Les personnalités et les épigrammes mordantes dont il avait parsemé son livre en assurèrent le débit et, dans l'espace de quelques années, il eut cinq ou six éditions de divers formats à Vienne, à Londres, à Rotterdam, à Nuremberg, dont quelques-unes sont augmentées de pièces dirigées contre les médecins et les apothicaires qui avaient le malheur d'encourir sa disgrâce. 
